--- a/用例数据/期货市场/D市场交易数据/期货开仓/测试结果.xlsx
+++ b/用例数据/期货市场/D市场交易数据/期货开仓/测试结果.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13636" uniqueCount="786">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13674" uniqueCount="820">
   <si>
     <t>SERIALNUM</t>
   </si>
@@ -2381,6 +2381,108 @@
   </si>
   <si>
     <t>31772.000</t>
+  </si>
+  <si>
+    <t>60000005</t>
+  </si>
+  <si>
+    <t>60000006</t>
+  </si>
+  <si>
+    <t>60000007</t>
+  </si>
+  <si>
+    <t>60000008</t>
+  </si>
+  <si>
+    <t>60000009</t>
+  </si>
+  <si>
+    <t>60000010</t>
+  </si>
+  <si>
+    <t>60000011</t>
+  </si>
+  <si>
+    <t>60000012</t>
+  </si>
+  <si>
+    <t>60000013</t>
+  </si>
+  <si>
+    <t>60000014</t>
+  </si>
+  <si>
+    <t>60000015</t>
+  </si>
+  <si>
+    <t>60000016</t>
+  </si>
+  <si>
+    <t>60000017</t>
+  </si>
+  <si>
+    <t>60000018</t>
+  </si>
+  <si>
+    <t>60000019</t>
+  </si>
+  <si>
+    <t>60000020</t>
+  </si>
+  <si>
+    <t>60000021</t>
+  </si>
+  <si>
+    <t>60000022</t>
+  </si>
+  <si>
+    <t>60000023</t>
+  </si>
+  <si>
+    <t>60000024</t>
+  </si>
+  <si>
+    <t>60000003</t>
+  </si>
+  <si>
+    <t>60000004</t>
+  </si>
+  <si>
+    <t>60000025</t>
+  </si>
+  <si>
+    <t>60000026</t>
+  </si>
+  <si>
+    <t>60000027</t>
+  </si>
+  <si>
+    <t>60000028</t>
+  </si>
+  <si>
+    <t>60000029</t>
+  </si>
+  <si>
+    <t>60000030</t>
+  </si>
+  <si>
+    <t>60000031</t>
+  </si>
+  <si>
+    <t>60000032</t>
+  </si>
+  <si>
+    <t>60000033</t>
+  </si>
+  <si>
+    <t>60000034</t>
+  </si>
+  <si>
+    <t>60000035</t>
+  </si>
+  <si>
+    <t>60000036</t>
   </si>
 </sst>
 </file>
@@ -29059,10 +29161,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CY230"/>
+  <dimension ref="A1:CY164"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="BL37" workbookViewId="0">
+      <selection activeCell="BN55" sqref="BN55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -29669,6 +29771,9 @@
       <c r="BS2" s="1" t="s">
         <v>129</v>
       </c>
+      <c r="BT2" s="1" t="s">
+        <v>786</v>
+      </c>
       <c r="BV2" s="1" t="s">
         <v>148</v>
       </c>
@@ -29929,6 +30034,9 @@
       <c r="BS3" s="1" t="s">
         <v>129</v>
       </c>
+      <c r="BT3" s="1" t="s">
+        <v>787</v>
+      </c>
       <c r="BV3" s="1" t="s">
         <v>730</v>
       </c>
@@ -30189,6 +30297,9 @@
       <c r="BS4" s="1" t="s">
         <v>129</v>
       </c>
+      <c r="BT4" s="1" t="s">
+        <v>788</v>
+      </c>
       <c r="BV4" s="1" t="s">
         <v>730</v>
       </c>
@@ -30449,6 +30560,9 @@
       <c r="BS5" s="1" t="s">
         <v>129</v>
       </c>
+      <c r="BT5" s="1" t="s">
+        <v>789</v>
+      </c>
       <c r="BV5" s="1" t="s">
         <v>730</v>
       </c>
@@ -30709,6 +30823,9 @@
       <c r="BS6" s="1" t="s">
         <v>129</v>
       </c>
+      <c r="BT6" s="1" t="s">
+        <v>790</v>
+      </c>
       <c r="BV6" s="1" t="s">
         <v>730</v>
       </c>
@@ -30969,6 +31086,9 @@
       <c r="BS7" s="1" t="s">
         <v>129</v>
       </c>
+      <c r="BT7" s="1" t="s">
+        <v>791</v>
+      </c>
       <c r="BV7" s="1" t="s">
         <v>730</v>
       </c>
@@ -31229,6 +31349,9 @@
       <c r="BS8" s="1" t="s">
         <v>129</v>
       </c>
+      <c r="BT8" s="1" t="s">
+        <v>792</v>
+      </c>
       <c r="BV8" s="1" t="s">
         <v>730</v>
       </c>
@@ -31489,6 +31612,9 @@
       <c r="BS9" s="1" t="s">
         <v>129</v>
       </c>
+      <c r="BT9" s="1" t="s">
+        <v>793</v>
+      </c>
       <c r="BV9" s="1" t="s">
         <v>730</v>
       </c>
@@ -31749,6 +31875,9 @@
       <c r="BS10" s="1" t="s">
         <v>129</v>
       </c>
+      <c r="BT10" s="1" t="s">
+        <v>794</v>
+      </c>
       <c r="BV10" s="1" t="s">
         <v>730</v>
       </c>
@@ -32009,6 +32138,9 @@
       <c r="BS11" s="1" t="s">
         <v>129</v>
       </c>
+      <c r="BT11" s="1" t="s">
+        <v>795</v>
+      </c>
       <c r="BV11" s="1" t="s">
         <v>730</v>
       </c>
@@ -32269,6 +32401,9 @@
       <c r="BS12" s="1" t="s">
         <v>129</v>
       </c>
+      <c r="BT12" s="1" t="s">
+        <v>796</v>
+      </c>
       <c r="BV12" s="1" t="s">
         <v>730</v>
       </c>
@@ -32529,6 +32664,9 @@
       <c r="BS13" s="1" t="s">
         <v>129</v>
       </c>
+      <c r="BT13" s="1" t="s">
+        <v>797</v>
+      </c>
       <c r="BV13" s="1" t="s">
         <v>730</v>
       </c>
@@ -32789,6 +32927,9 @@
       <c r="BS14" s="1" t="s">
         <v>129</v>
       </c>
+      <c r="BT14" s="1" t="s">
+        <v>798</v>
+      </c>
       <c r="BV14" s="1" t="s">
         <v>730</v>
       </c>
@@ -33049,6 +33190,9 @@
       <c r="BS15" s="1" t="s">
         <v>129</v>
       </c>
+      <c r="BT15" s="1" t="s">
+        <v>799</v>
+      </c>
       <c r="BV15" s="1" t="s">
         <v>730</v>
       </c>
@@ -33309,6 +33453,9 @@
       <c r="BS16" s="1" t="s">
         <v>129</v>
       </c>
+      <c r="BT16" s="1" t="s">
+        <v>800</v>
+      </c>
       <c r="BV16" s="1" t="s">
         <v>730</v>
       </c>
@@ -33569,6 +33716,9 @@
       <c r="BS17" s="1" t="s">
         <v>129</v>
       </c>
+      <c r="BT17" s="1" t="s">
+        <v>801</v>
+      </c>
       <c r="BV17" s="1" t="s">
         <v>730</v>
       </c>
@@ -33829,6 +33979,9 @@
       <c r="BS18" s="1" t="s">
         <v>129</v>
       </c>
+      <c r="BT18" s="1" t="s">
+        <v>802</v>
+      </c>
       <c r="BV18" s="1" t="s">
         <v>730</v>
       </c>
@@ -34089,6 +34242,9 @@
       <c r="BS19" s="1" t="s">
         <v>129</v>
       </c>
+      <c r="BT19" s="1" t="s">
+        <v>803</v>
+      </c>
       <c r="BV19" s="1" t="s">
         <v>730</v>
       </c>
@@ -34349,6 +34505,9 @@
       <c r="BS20" s="1" t="s">
         <v>129</v>
       </c>
+      <c r="BT20" s="1" t="s">
+        <v>804</v>
+      </c>
       <c r="BV20" s="1" t="s">
         <v>730</v>
       </c>
@@ -34609,6 +34768,9 @@
       <c r="BS21" s="1" t="s">
         <v>129</v>
       </c>
+      <c r="BT21" s="1" t="s">
+        <v>805</v>
+      </c>
       <c r="BV21" s="1" t="s">
         <v>730</v>
       </c>
@@ -34869,6 +35031,9 @@
       <c r="BS22" s="1" t="s">
         <v>129</v>
       </c>
+      <c r="BT22" s="1" t="s">
+        <v>806</v>
+      </c>
       <c r="BV22" s="1" t="s">
         <v>145</v>
       </c>
@@ -35129,6 +35294,9 @@
       <c r="BS23" s="1" t="s">
         <v>129</v>
       </c>
+      <c r="BT23" s="1" t="s">
+        <v>807</v>
+      </c>
       <c r="BV23" s="1" t="s">
         <v>148</v>
       </c>
@@ -35389,6 +35557,9 @@
       <c r="BS24" s="1" t="s">
         <v>129</v>
       </c>
+      <c r="BT24" s="1" t="s">
+        <v>808</v>
+      </c>
       <c r="BU24" s="1" t="s">
         <v>153</v>
       </c>
@@ -35652,6 +35823,9 @@
       <c r="BS25" s="1" t="s">
         <v>129</v>
       </c>
+      <c r="BT25" s="1" t="s">
+        <v>809</v>
+      </c>
       <c r="BU25" s="1" t="s">
         <v>108</v>
       </c>
@@ -35915,6 +36089,9 @@
       <c r="BS26" s="1" t="s">
         <v>168</v>
       </c>
+      <c r="BT26" s="1" t="s">
+        <v>810</v>
+      </c>
       <c r="BU26" s="1" t="s">
         <v>277</v>
       </c>
@@ -36178,6 +36355,9 @@
       <c r="BS27" s="1" t="s">
         <v>168</v>
       </c>
+      <c r="BT27" s="1" t="s">
+        <v>811</v>
+      </c>
       <c r="BU27" s="1" t="s">
         <v>277</v>
       </c>
@@ -36441,6 +36621,9 @@
       <c r="BS28" s="1" t="s">
         <v>168</v>
       </c>
+      <c r="BT28" s="1" t="s">
+        <v>812</v>
+      </c>
       <c r="BU28" s="1" t="s">
         <v>277</v>
       </c>
@@ -36704,6 +36887,9 @@
       <c r="BS29" s="1" t="s">
         <v>168</v>
       </c>
+      <c r="BT29" s="1" t="s">
+        <v>813</v>
+      </c>
       <c r="BU29" s="1" t="s">
         <v>247</v>
       </c>
@@ -36967,6 +37153,9 @@
       <c r="BS30" s="1" t="s">
         <v>168</v>
       </c>
+      <c r="BT30" s="1" t="s">
+        <v>813</v>
+      </c>
       <c r="BU30" s="1" t="s">
         <v>238</v>
       </c>
@@ -37233,6 +37422,9 @@
       <c r="BS31" s="1" t="s">
         <v>186</v>
       </c>
+      <c r="BT31" s="1" t="s">
+        <v>813</v>
+      </c>
       <c r="BU31" s="1" t="s">
         <v>225</v>
       </c>
@@ -37496,6 +37688,9 @@
       <c r="BS32" s="1" t="s">
         <v>123</v>
       </c>
+      <c r="BT32" s="1" t="s">
+        <v>814</v>
+      </c>
       <c r="BU32" s="1" t="s">
         <v>348</v>
       </c>
@@ -37759,6 +37954,9 @@
       <c r="BS33" s="1" t="s">
         <v>176</v>
       </c>
+      <c r="BT33" s="1" t="s">
+        <v>815</v>
+      </c>
       <c r="BU33" s="1" t="s">
         <v>341</v>
       </c>
@@ -38022,6 +38220,9 @@
       <c r="BS34" s="1" t="s">
         <v>168</v>
       </c>
+      <c r="BT34" s="1" t="s">
+        <v>816</v>
+      </c>
       <c r="BU34" s="1" t="s">
         <v>330</v>
       </c>
@@ -38285,6 +38486,9 @@
       <c r="BS35" s="1" t="s">
         <v>168</v>
       </c>
+      <c r="BT35" s="1" t="s">
+        <v>817</v>
+      </c>
       <c r="BU35" s="1" t="s">
         <v>330</v>
       </c>
@@ -38548,6 +38752,9 @@
       <c r="BS36" s="1" t="s">
         <v>168</v>
       </c>
+      <c r="BT36" s="1" t="s">
+        <v>818</v>
+      </c>
       <c r="BU36" s="1" t="s">
         <v>330</v>
       </c>
@@ -38811,6 +39018,9 @@
       <c r="BS37" s="1" t="s">
         <v>168</v>
       </c>
+      <c r="BT37" s="1" t="s">
+        <v>819</v>
+      </c>
       <c r="BU37" s="1" t="s">
         <v>301</v>
       </c>
@@ -39074,6 +39284,9 @@
       <c r="BS38" s="1" t="s">
         <v>168</v>
       </c>
+      <c r="BT38" s="1" t="s">
+        <v>819</v>
+      </c>
       <c r="BU38" s="1" t="s">
         <v>296</v>
       </c>
@@ -39336,6 +39549,9 @@
       </c>
       <c r="BS39" s="1" t="s">
         <v>186</v>
+      </c>
+      <c r="BT39" s="1" t="s">
+        <v>819</v>
       </c>
       <c r="BU39" s="1" t="s">
         <v>288</v>
@@ -42448,75 +42664,10 @@
     <row r="162" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="163" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="164" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="165" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="166" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="167" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="168" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="169" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="170" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="171" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="172" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="173" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="174" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="175" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="176" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="177" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="178" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="179" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="180" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="181" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="182" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="183" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="184" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="185" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="186" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="187" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="188" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="189" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="190" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="191" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="192" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="193" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="194" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="195" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="196" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="197" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="198" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="199" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="200" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="201" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="202" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="203" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="204" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="205" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="206" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="207" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="208" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="209" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="210" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="211" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="212" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="213" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="214" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="215" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="216" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="217" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="218" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="219" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="220" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="221" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="222" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="223" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="224" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="225" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="226" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="227" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="228" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="229" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="230" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
